--- a/assets/excel/checklist.xlsx
+++ b/assets/excel/checklist.xlsx
@@ -24,19 +24,19 @@
   <definedNames>
     <definedName name="if" localSheetId="10">#REF!</definedName>
     <definedName name="if">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">='교량, 터널'!$A$1:$B$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">='역타(건축, 주택)'!$A$1:$C$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">='1. 시스템'!$A$1:$C$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'2. 자재 및 시공'!$A$1:$B$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">=RC!$A$1:$C$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">=RC!$A$1:$C$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">='교량, 터널'!$A$1:$B$0-8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">='내부심사 갑지'!$A$1:$K$-3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">마감!$B$1:$J$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">문서분류목록표!$A$1:$I$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">방수!$B$1:$J$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">='역타(건축, 주택)'!$B$1:$D$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">='역타(건축, 주택)'!$A$1:$B$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">철골!$B$1:$J$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">타일!$B$1:$J$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">='토공, 흙막이'!$A$1:$C$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">='토공, 흙막이'!$A$1:$C$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'0.점검준비'!#REF!</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="313">
   <si>
     <t>자재 및 시공 배점 및 기준사항</t>
   </si>
@@ -467,18 +467,6 @@
   </si>
   <si>
     <t>현장 현설자료 (현재 진행중인 공정)</t>
-  </si>
-  <si>
-    <t>구분</t>
-  </si>
-  <si>
-    <t>평가 항목</t>
-  </si>
-  <si>
-    <t>배점</t>
-  </si>
-  <si>
-    <t>평가기준</t>
   </si>
   <si>
     <t>조적-자재</t>
@@ -494,15 +482,7 @@
 2. 후시공 배관 주변 사춤은 철저하게 진행되었는가?</t>
   </si>
   <si>
-    <t>물림깊이 200mm이상
-배관주변 사춤 실시 여부 확인</t>
-  </si>
-  <si>
     <t>내화벽체구간 두께는 확인 하였는가?</t>
-  </si>
-  <si>
-    <t>1.0B조적, 철근 트러스 인방 사용여부
-공동주택의 경우 200mm 확인 (확인)</t>
   </si>
   <si>
     <t>석재-자재</t>
@@ -521,10 +501,6 @@
     <t>석재의 꽂음촉은 100% 사용 되었는가?</t>
   </si>
   <si>
-    <t>하자소송 사항이니 필히 확인
-특히 최 하단부</t>
-  </si>
-  <si>
     <t>단열</t>
   </si>
   <si>
@@ -532,18 +508,12 @@
 타설전 수직 수평 결로방지 단열재 고정은 확인하였는가?</t>
   </si>
   <si>
-    <t>테이핑 상태, 치수 확인</t>
-  </si>
-  <si>
     <t>보 측면/하부, 슬라브 다운구간은 설치 되었는가?</t>
   </si>
   <si>
     <t>마감공사 진행 중 훼손부위 보수 시공하였는가?</t>
   </si>
   <si>
-    <t>빠루 등으로 훼손여부 확인</t>
-  </si>
-  <si>
     <t>단열재 2중 시공시 엇갈림 시공은 확인하였는가?</t>
   </si>
   <si>
@@ -553,16 +523,10 @@
     <t>런너 및 스터드 간격은 설계도서와 일치하는가?</t>
   </si>
   <si>
-    <t>설계도서와 시공 일치 여부 확인</t>
-  </si>
-  <si>
     <t>최상단 고정금지 및 최하단 완충재 설치 하였는가?</t>
   </si>
   <si>
     <t>글라스 울 등 충진재는 적절히 시공되었는가?</t>
-  </si>
-  <si>
-    <t>기포 콘크리트 타설 등의 이유로 추후 석고보드 곰팡이 발생</t>
   </si>
   <si>
     <t>이행 준수</t>
@@ -575,75 +539,37 @@
     <t>자재</t>
   </si>
   <si>
-    <t>시험성적서, 자재 SPEC 등 확인</t>
-  </si>
-  <si>
     <t>타일</t>
   </si>
   <si>
     <t>시공상세도 및 타일나누기는 적절하며 시공 전 승인을 득하였는가?</t>
   </si>
   <si>
-    <t>타일 나누기도 승인 및 시공상태 확인</t>
-  </si>
-  <si>
     <t>부위별 붙임공법은 설계도서와 일치하는가?</t>
   </si>
   <si>
-    <t>부위별 바탕면, 붙임재료 및 공법은 연구원 매뉴얼과 일치하는가?</t>
-  </si>
-  <si>
     <t>부위별 피착면적 기준을 준수하고 있는가?</t>
   </si>
   <si>
-    <t>욕실벽 건조시멘트 모르타르: 최소 80% 이상
-기타 타일시멘트: 95% 이상</t>
-  </si>
-  <si>
     <t>부위별 줄눈 폭을 준수하였는가?</t>
   </si>
   <si>
-    <t>벽체 : 2mm
-바닥(일반부위) : 3mm
-공용부/현관 바닥 : 4mm</t>
-  </si>
-  <si>
     <t>신축줄눈은 설치 기준을 준수하여 시공하였는가?</t>
   </si>
   <si>
-    <t>설계에 반영 확인
-타일 시공 구간 5m 이상인 경우, 신축줄눈 설치 확인</t>
-  </si>
-  <si>
     <t>벽면과 벽면 또는 벽면과 바닥이 닿는 타일 모서리는 이격시공되어 있는가?</t>
   </si>
   <si>
-    <t>3mm 이상 이격</t>
-  </si>
-  <si>
     <t>에폭시 점붙임 시공시 접착 면적 20% 이상 인가?</t>
   </si>
   <si>
-    <t>20% 확인</t>
-  </si>
-  <si>
     <t>붙임재료의 가사시간과 비빔시간을 준수하여 시공하였는가?</t>
   </si>
   <si>
-    <t>60분 확인</t>
-  </si>
-  <si>
     <t>시공 후 접착력 시험을 실시하였으며 4kgf/cm2을 만족하는가?</t>
   </si>
   <si>
-    <t>시험성적 확인</t>
-  </si>
-  <si>
     <t>프라이머, 방수자재, 부자재 등은 승인 받은 자재를 사용하였는가? (시험성적서, 자재 SPEC등 확인)</t>
-  </si>
-  <si>
-    <t>승인자재 사용 여부 확인
-친환경 인증 제품 Spec. 반영 시, 인증획득 확인</t>
   </si>
   <si>
     <t>방수</t>
@@ -653,55 +579,26 @@
 (함수율, 오염, 균열, 돌기, 요철, CJ구간 보강 등)</t>
   </si>
   <si>
-    <t>함수율 8% 이하 (6% 권장)
-취약부(CJ, 관통배관, 드레인, 수직-수평 조인트 등) 우레탄실란트 보강</t>
-  </si>
-  <si>
     <t>프라이머 시공 후 양생시간을 준수하여 본시공을 하였는가?</t>
   </si>
   <si>
-    <t>프라이머 도포 유무 / 지촉건조 확인</t>
-  </si>
-  <si>
     <t>시공계획서 및 제조사 시방서에 명기한 도구를 사용하였는가?</t>
   </si>
   <si>
-    <t>적합 자재 사용 확인</t>
-  </si>
-  <si>
     <t>도막 및 시트 등 방수층의 이음부처리 및 양생은 적절한가?</t>
-  </si>
-  <si>
-    <t>공법사 시방기준 준수여부 확인
-(시트간 겹침 길이 준수 여부)</t>
   </si>
   <si>
     <t>본 방수 시공은 시방서 기준에 적합하게 시공되었는가?
 (방수 두께, 높이, 면적, 이음부, 수직-수평 연결부, 관통부 등)</t>
   </si>
   <si>
-    <t>우레탄 도막 두께 : 바닥 3T/벽 2T
-시트 두께 : 공법사별 시방 확인
-시멘트액체방수 : 4T 이상
-공법사 별 취약부 시방 디테일 확인</t>
-  </si>
-  <si>
     <t>시공 중 부풀음, 에어포켓(이하 시공중 하자)에 대한 적절한 조치가 실시하였는가?</t>
   </si>
   <si>
-    <t>에어포켓 제거 후 공법사별 보강방안 적용 확인</t>
-  </si>
-  <si>
     <t>욕실 경량벽체는 무기질 탄성 도막방수를 적용하고 두께는 기준에 적합한가?</t>
   </si>
   <si>
-    <t>공법사 두께 준수 확인</t>
-  </si>
-  <si>
     <t>담수 테스트를 실시하고 누수 유무를 확인하였는가?</t>
-  </si>
-  <si>
-    <t>담수테스트 검측서 확인 (실시 유무)</t>
   </si>
   <si>
     <t>굴착깊이</t>
@@ -780,18 +677,12 @@
     <t>설계도면의 강종과 반입된 자재가 일치하는가?</t>
   </si>
   <si>
-    <t>밀시트와 현장 확인</t>
-  </si>
-  <si>
     <t>인력</t>
   </si>
   <si>
     <t>용접사 기량테스트를 통과한 인력을 투입하였는가?</t>
   </si>
   <si>
-    <t>현장 용접사 이름 생년월일 등 신원확인 후 대조</t>
-  </si>
-  <si>
     <t>철골</t>
   </si>
   <si>
@@ -799,10 +690,6 @@
   </si>
   <si>
     <t>철골 설치는 설계도서와 일치 하는가?</t>
-  </si>
-  <si>
-    <t>접합부 몇군데 정도 (핀접, 강접)
-설계 도면과 확인</t>
   </si>
   <si>
     <t>볼트 체결은 적절한가?
@@ -812,27 +699,14 @@
     <t>용접봉의 사용 및 보관 관리는 시방 기준을 준수하는가?</t>
   </si>
   <si>
-    <t>용접봉 종류, 확인</t>
-  </si>
-  <si>
     <t>용접은 설계도서를 준수하였는가?
 (목 두께, 용접방법, 용접길이 등)</t>
   </si>
   <si>
-    <t>도면과 비교</t>
-  </si>
-  <si>
     <t>용접검사(MT, UT 등)는 기준에 맞게 실시하고 있는가?</t>
   </si>
   <si>
-    <t>용접 검사 횟수 (시방서 확인)
-횟수 대비 확인</t>
-  </si>
-  <si>
     <t>용접 불량률은 적절한 수준에서 관리되고 있는가?</t>
-  </si>
-  <si>
-    <t>NCR 및 용접검사 보고서 확인</t>
   </si>
   <si>
     <t>스터드 볼트</t>
@@ -842,23 +716,14 @@
 (구간별 굽힘(타격)시험 실시 100EA 당 1회 실시, 15°이상 타격)</t>
   </si>
   <si>
-    <t>현장 시험 결과 확인</t>
-  </si>
-  <si>
     <t>데크 플레이트</t>
   </si>
   <si>
     <t>철골에 직봉 용접 및 철골과의 겹침길이는 준수하였는가?</t>
-  </si>
-  <si>
-    <t>직봉용접 확인 및 겹침 길이는 도면확인</t>
   </si>
   <si>
     <t>슬리브 등의 오픈구간 보강은 적절한가?
 (도면 상세와 일치여부 확인)</t>
-  </si>
-  <si>
-    <t>오프닝 보강 상세 확인</t>
   </si>
   <si>
     <t>동바리 및 비계 등 가설물의 구조계산, 시공상세도는 시공 전 승인 받았는가?</t>
@@ -1201,10 +1066,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dddd, mmmm dd, yyyy"/>
-  </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,6 +1080,12 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="HY헤드라인M"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1249,7 +1118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1308,12 +1177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
@@ -1323,14 +1186,8 @@
       <name val="돋움"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1360,11 +1217,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFd9d9d9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFdcf8d8"/>
       </patternFill>
     </fill>
   </fills>
@@ -1474,7 +1326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1482,139 +1334,139 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="16" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="16" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
@@ -1626,7 +1478,7 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1635,67 +1487,64 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="17" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="18" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2000,234 +1849,223 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="64.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="54.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="58" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="66" width="64.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="67" width="54.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="60" customFormat="1" s="59">
       <c r="A1" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="60" customFormat="1" s="68">
-      <c r="A2" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>318</v>
-      </c>
-      <c r="C2" s="73">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A3" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60" customFormat="1" s="68">
-      <c r="A4" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="73">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="56.25" customFormat="1" s="68">
-      <c r="A5" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" s="73">
+        <v>277</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A2" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="60" customFormat="1" s="59">
+      <c r="A3" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="56.25" customFormat="1" s="59">
+      <c r="A4" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="72">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A6" s="56" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A5" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="C6" s="73">
+      <c r="B5" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="72">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="75" customFormat="1" s="68">
-      <c r="A7" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="63">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="75" customFormat="1" s="59">
+      <c r="A6" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="61">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A8" s="56" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="C8" s="73">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="75" customFormat="1" s="68">
-      <c r="A9" s="56" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A7" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="75" customFormat="1" s="59">
+      <c r="A8" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="73">
+      <c r="B8" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="72">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A10" s="56" t="s">
-        <v>331</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" s="73">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A9" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="72">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A11" s="56" t="s">
-        <v>333</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>334</v>
-      </c>
-      <c r="C11" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="60" customFormat="1" s="68">
-      <c r="A12" s="56" t="s">
-        <v>335</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>336</v>
-      </c>
-      <c r="C12" s="73">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A10" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="60" customFormat="1" s="59">
+      <c r="A11" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="72">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A13" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="56.25" customFormat="1" s="68">
-      <c r="A14" s="74" t="s">
-        <v>339</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="C14" s="73">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A15" s="56" t="s">
-        <v>341</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="C15" s="73">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A16" s="56" t="s">
-        <v>343</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="C16" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A17" s="56" t="s">
-        <v>345</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>346</v>
-      </c>
-      <c r="C17" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="60" customFormat="1" s="68">
-      <c r="A18" s="56" t="s">
-        <v>347</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="C18" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A19" s="56" t="s">
-        <v>349</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>350</v>
-      </c>
-      <c r="C19" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="60" customFormat="1" s="68">
-      <c r="A20" s="56" t="s">
-        <v>351</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>352</v>
-      </c>
-      <c r="C20" s="63">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A12" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="56.25" customFormat="1" s="59">
+      <c r="A13" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A14" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A15" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A16" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="60" customFormat="1" s="59">
+      <c r="A17" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A18" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="60" customFormat="1" s="59">
+      <c r="A19" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" s="61">
         <v>2</v>
       </c>
     </row>
@@ -4940,157 +4778,146 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="81.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="98.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="66" width="81.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="67" width="98.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="59">
       <c r="A1" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="68">
-      <c r="A2" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="68">
-      <c r="A3" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="68">
-      <c r="A4" s="56" t="s">
-        <v>304</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="68">
-      <c r="A5" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="68">
-      <c r="A6" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="68">
-      <c r="A7" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="68">
-      <c r="A8" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" s="67">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A9" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" s="71">
+      <c r="C1" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="59">
+      <c r="A2" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="59">
+      <c r="A3" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="59">
+      <c r="A4" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="59">
+      <c r="A5" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="59">
+      <c r="A6" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="31.5" customFormat="1" s="59">
+      <c r="A7" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="36" customFormat="1" s="59">
+      <c r="A8" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="70">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="68">
-      <c r="A10" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" s="67">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A11" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" s="72">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="68">
-      <c r="A12" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>316</v>
-      </c>
-      <c r="C12" s="67">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5" customFormat="1" s="68">
-      <c r="A13" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="C13" s="67">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="59">
+      <c r="A9" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="36" customFormat="1" s="59">
+      <c r="A10" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="71">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="59">
+      <c r="A11" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="36" customFormat="1" s="59">
+      <c r="A12" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="65">
         <v>6</v>
       </c>
     </row>
@@ -5104,234 +4931,223 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="83.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="66" width="83.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="67" width="27.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95" customFormat="1" s="59">
       <c r="A1" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95">
-      <c r="A2" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
-      <c r="A3" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="C1" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95" customFormat="1" s="59">
+      <c r="A2" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A3" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95" customFormat="1" s="59">
+      <c r="A4" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95" customFormat="1" s="59">
+      <c r="A5" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95" customFormat="1" s="59">
+      <c r="A6" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A7" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A8" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A9" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A10" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A11" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A12" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A13" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A14" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="39.95" customFormat="1" s="59">
+      <c r="A15" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39.95" customFormat="1" s="59">
+      <c r="A16" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="39.95" customFormat="1" s="59">
+      <c r="A17" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A18" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="37.5">
-      <c r="A4" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
-      <c r="A5" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
-      <c r="A6" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
-      <c r="A7" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="37.5">
-      <c r="A8" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="37.5">
-      <c r="A9" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5">
-      <c r="A10" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5">
-      <c r="A11" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="63">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5">
-      <c r="A12" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="63">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5">
-      <c r="A13" s="56" t="s">
-        <v>293</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="C13" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5">
-      <c r="A14" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="63">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="37.5">
-      <c r="A15" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="C15" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39.95">
-      <c r="A16" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="C16" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="39.95">
-      <c r="A17" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="39.95">
-      <c r="A18" s="66" t="s">
-        <v>299</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="37.5">
-      <c r="A19" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="37.5">
-      <c r="A20" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="C20" s="67">
+      <c r="C18" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="37.5" customFormat="1" s="59">
+      <c r="A19" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="65">
         <v>6</v>
       </c>
     </row>
@@ -5345,234 +5161,223 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="70.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="53" width="70.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="52" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95">
       <c r="A1" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="62" t="s">
-        <v>143</v>
+      <c r="C1" s="29">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95">
-      <c r="A2" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>146</v>
+      <c r="A2" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>221</v>
       </c>
       <c r="C2" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
-      <c r="A3" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>261</v>
+      <c r="A3" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>222</v>
       </c>
       <c r="C3" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95">
-      <c r="A4" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>262</v>
+      <c r="A4" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>224</v>
       </c>
       <c r="C4" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
-      <c r="A5" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>264</v>
+      <c r="A5" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>225</v>
       </c>
       <c r="C5" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
-      <c r="A6" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>265</v>
+      <c r="A6" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>226</v>
       </c>
       <c r="C6" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
-      <c r="A7" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>266</v>
+      <c r="A7" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>227</v>
       </c>
       <c r="C7" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
-      <c r="A8" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>267</v>
+      <c r="A8" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>229</v>
       </c>
       <c r="C8" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
-      <c r="A9" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>269</v>
+      <c r="A9" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>230</v>
       </c>
       <c r="C9" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
-      <c r="A10" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>270</v>
+      <c r="A10" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>231</v>
       </c>
       <c r="C10" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
-      <c r="A11" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>271</v>
+      <c r="A11" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>232</v>
       </c>
       <c r="C11" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.95">
-      <c r="A12" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>272</v>
+      <c r="A12" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>233</v>
       </c>
       <c r="C12" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="39.95">
-      <c r="A13" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>273</v>
+      <c r="A13" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>235</v>
       </c>
       <c r="C13" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="39.95">
-      <c r="A14" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>275</v>
+      <c r="A14" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>236</v>
       </c>
       <c r="C14" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="39.95">
-      <c r="A15" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>276</v>
+      <c r="A15" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>237</v>
       </c>
       <c r="C15" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39.95">
-      <c r="A16" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>277</v>
+      <c r="A16" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>238</v>
       </c>
       <c r="C16" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="39.95">
-      <c r="A17" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>278</v>
+      <c r="A17" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>239</v>
       </c>
       <c r="C17" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="39.95">
-      <c r="A18" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>279</v>
+      <c r="A18" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>241</v>
       </c>
       <c r="C18" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="39.95">
-      <c r="A19" s="56" t="s">
-        <v>280</v>
+      <c r="A19" s="54" t="s">
+        <v>160</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>281</v>
+        <v>161</v>
       </c>
       <c r="C19" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="39.95">
-      <c r="A20" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="29">
         <v>6</v>
       </c>
     </row>
@@ -5586,207 +5391,159 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="73.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="60" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="53" width="73.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="52" width="7.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95">
       <c r="A1" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>144</v>
+        <v>162</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="29">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95">
-      <c r="A2" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>235</v>
+      <c r="A2" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>207</v>
       </c>
       <c r="C2" s="29">
         <v>3</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
-      <c r="A3" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>238</v>
+      <c r="A3" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>209</v>
       </c>
       <c r="C3" s="29">
         <v>3</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95">
-      <c r="A4" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>241</v>
+      <c r="A4" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>210</v>
       </c>
       <c r="C4" s="29">
-        <v>3</v>
-      </c>
-      <c r="D4" s="57"/>
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
-      <c r="A5" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>242</v>
+      <c r="A5" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>211</v>
       </c>
       <c r="C5" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
+      <c r="A6" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
+      <c r="A7" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="29">
         <v>6</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
-      <c r="A6" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="29">
-        <v>3</v>
-      </c>
-      <c r="D6" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
-      <c r="A7" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="29">
-        <v>3</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
-      <c r="A8" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>247</v>
+      <c r="A8" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="C8" s="29">
         <v>6</v>
       </c>
-      <c r="D8" s="57" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
-      <c r="A9" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>249</v>
+      <c r="A9" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>215</v>
       </c>
       <c r="C9" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
+      <c r="A10" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
+      <c r="A11" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.95">
+      <c r="A12" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="39.95">
+      <c r="A13" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="29">
         <v>6</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
-      <c r="A10" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="29">
-        <v>3</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
-      <c r="A11" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="29">
-        <v>3</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.95">
-      <c r="A12" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="29">
-        <v>3</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="39.95">
-      <c r="A13" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="29">
-        <v>3</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="39.95">
-      <c r="A14" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="29">
-        <v>6</v>
-      </c>
-      <c r="D14" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5798,171 +5555,146 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="4.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="69.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="60" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="44" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="53" width="69.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="52" width="7.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
-      <c r="A1" s="13"/>
-      <c r="B1" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>143</v>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95">
+      <c r="A1" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="29">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95">
-      <c r="A2" s="13"/>
-      <c r="B2" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="29">
+      <c r="A2" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
-      <c r="A3" s="13"/>
-      <c r="B3" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="A3" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95">
-      <c r="A4" s="13"/>
-      <c r="B4" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="29">
+      <c r="A4" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
-      <c r="A5" s="13"/>
-      <c r="B5" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="29">
+      <c r="A5" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
-      <c r="A6" s="13"/>
-      <c r="B6" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="29">
+      <c r="A6" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
-      <c r="A7" s="13"/>
-      <c r="B7" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="29">
+      <c r="A7" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
-      <c r="A8" s="13"/>
-      <c r="B8" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="29">
+      <c r="A8" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
-      <c r="A9" s="13"/>
-      <c r="B9" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="29">
+      <c r="A9" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
-      <c r="A10" s="13"/>
-      <c r="B10" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="29">
+      <c r="A10" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
-      <c r="A11" s="13"/>
-      <c r="B11" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="29">
+      <c r="A11" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="29">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.95">
-      <c r="A12" s="13"/>
-      <c r="B12" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="39.95">
-      <c r="A13" s="13"/>
-      <c r="B13" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="29">
+      <c r="A12" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="29">
         <v>6</v>
       </c>
     </row>
@@ -5976,169 +5708,126 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="69.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="60" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="64.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="53" width="69.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="52" width="7.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95">
       <c r="A1" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95">
-      <c r="A2" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>194</v>
+      <c r="C1" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="45.75">
+      <c r="A2" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>175</v>
       </c>
       <c r="C2" s="29">
-        <v>3</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="45.75">
-      <c r="A3" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>197</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
+      <c r="A3" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>176</v>
       </c>
       <c r="C3" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95">
+      <c r="A4" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
+      <c r="A5" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="63">
+      <c r="A6" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="29">
         <v>6</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95">
-      <c r="A4" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="29">
-        <v>3</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
-      <c r="A5" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="29">
-        <v>3</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
-      <c r="A6" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="29">
-        <v>3</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="63">
-      <c r="A7" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>205</v>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
+      <c r="A7" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>180</v>
       </c>
       <c r="C7" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
+      <c r="A8" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
+      <c r="A9" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
+      <c r="A10" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="29">
         <v>6</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
-      <c r="A8" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="29">
-        <v>3</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
-      <c r="A9" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="29">
-        <v>3</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
-      <c r="A10" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="29">
-        <v>3</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
-      <c r="A11" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="29">
-        <v>6</v>
-      </c>
-      <c r="D11" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6150,183 +5839,137 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="69.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="60" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="53" width="69.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="52" width="7.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95">
       <c r="A1" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>144</v>
+      <c r="C1" s="29">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95">
-      <c r="A2" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>146</v>
+      <c r="A2" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>164</v>
       </c>
       <c r="C2" s="29">
         <v>3</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
-      <c r="A3" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>176</v>
+      <c r="A3" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>165</v>
       </c>
       <c r="C3" s="29">
-        <v>3</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>177</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95">
-      <c r="A4" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>178</v>
+      <c r="A4" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>166</v>
       </c>
       <c r="C4" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="44.25">
+      <c r="A5" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
+      <c r="A6" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
+      <c r="A7" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="29">
         <v>6</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
-      <c r="A5" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="29">
-        <v>3</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="44.25">
-      <c r="A6" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="29">
-        <v>3</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
-      <c r="A7" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="29">
-        <v>3</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
-      <c r="A8" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>186</v>
+      <c r="A8" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>170</v>
       </c>
       <c r="C8" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
+      <c r="A9" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
+      <c r="A10" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="29">
         <v>6</v>
       </c>
-      <c r="D8" s="57" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
-      <c r="A9" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="29">
-        <v>3</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
-      <c r="A10" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="29">
-        <v>3</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
-      <c r="A11" s="56" t="s">
-        <v>175</v>
+      <c r="A11" s="54" t="s">
+        <v>160</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C11" s="29">
         <v>6</v>
       </c>
-      <c r="D11" s="57" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.95">
-      <c r="A12" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="29">
-        <v>6</v>
-      </c>
-      <c r="D12" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6338,225 +5981,181 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="15" width="67.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="60" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="52" width="7.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="50.1">
       <c r="A1" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95">
+      <c r="A2" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="50.1">
-      <c r="A2" s="56" t="s">
+      <c r="C2" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
+      <c r="A3" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="C3" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="52.5">
+      <c r="A4" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="29">
-        <v>3</v>
-      </c>
-      <c r="D2" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
-      <c r="A3" s="56" t="s">
+      <c r="B4" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
+      <c r="A5" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="C5" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
+      <c r="A6" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="29">
+      <c r="B6" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="29">
         <v>6</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95">
-      <c r="A4" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="57" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
+      <c r="A7" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>150</v>
-      </c>
-      <c r="C4" s="29">
-        <v>3</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="52.5">
-      <c r="A5" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="29">
-        <v>3</v>
-      </c>
-      <c r="D5" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
-      <c r="A6" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="29">
-        <v>3</v>
-      </c>
-      <c r="D6" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
-      <c r="A7" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>155</v>
       </c>
       <c r="C7" s="29">
         <v>6</v>
       </c>
-      <c r="D7" s="57"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
+      <c r="A9" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
+      <c r="A10" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="C10" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
+      <c r="A11" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.95">
+      <c r="A12" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="29">
+      <c r="B12" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="29">
         <v>6</v>
       </c>
-      <c r="D8" s="57" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
-      <c r="A9" s="56" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="39.95">
+      <c r="A13" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="C13" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="39.95">
+      <c r="A14" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="29">
-        <v>3</v>
-      </c>
-      <c r="D9" s="57" t="s">
+      <c r="C14" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="39.95">
+      <c r="A15" s="54" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
-      <c r="A10" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="57" t="s">
+      <c r="B15" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C15" s="29">
         <v>6</v>
       </c>
-      <c r="D10" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
-      <c r="A11" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="29">
-        <v>3</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.95">
-      <c r="A12" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="29">
-        <v>3</v>
-      </c>
-      <c r="D12" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="39.95">
-      <c r="A13" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="29">
-        <v>6</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="39.95">
-      <c r="A14" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="29">
-        <v>3</v>
-      </c>
-      <c r="D14" s="57"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="39.95">
-      <c r="A15" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="29">
-        <v>3</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39.95">
-      <c r="A16" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="29">
-        <v>6</v>
-      </c>
-      <c r="D16" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/excel/checklist.xlsx
+++ b/assets/excel/checklist.xlsx
@@ -943,10 +943,10 @@
     <t>중점 품질관리</t>
   </si>
   <si>
-    <t>1. 중점품질관리계획서 작성여부 - OK
-2. 중점품질교육실시 기록서 확인 - say OK
-3. 대상공종 장비/인력 적정여부 확인 - OK
-4. 중점공종 검측서에 중점공종 표기 확인 - OK</t>
+    <t>1. 중점품질관리계획서 작성여부
+2. 중점품질교육실시 기록서 확인
+3. 대상공종 장비/인력 적정여부 확인
+4. 중점공종 검측서에 중점공종 표기 확인</t>
   </si>
   <si>
     <t>공장점검계획</t>
@@ -957,7 +957,7 @@
   </si>
   <si>
     <t>1. 품질시험계획서 작성여부
- 1.1 가설기자재, 커플러, 완충재, 거푸집용 합판 등 여부확인 - OK
+ 1.1 가설기자재, 커플러, 완충재, 거푸집용 합판 등 여부확인
 2. 시험계획 항목 적절성 여부 확인
  2.1 물량대비 시험횟수 적정여부 확인</t>
   </si>
@@ -1084,7 +1084,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1114,12 +1114,6 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1184,6 +1178,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="돋움"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1326,7 +1326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="71">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1355,7 +1355,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -1376,109 +1376,106 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="16" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="16" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1487,64 +1484,58 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="17" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="17" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1855,217 +1846,217 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="58" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="66" width="64.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="67" width="54.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="57" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="64.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="65" width="54.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="60" customFormat="1" s="59">
-      <c r="A1" s="54" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="58">
+      <c r="A1" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="72">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A2" s="54" t="s">
+      <c r="C1" s="69">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="36" customFormat="1" s="58">
+      <c r="A2" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="60" customFormat="1" s="59">
-      <c r="A3" s="54" t="s">
+      <c r="C2" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="31.5" customFormat="1" s="58">
+      <c r="A3" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="72">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="56.25" customFormat="1" s="59">
-      <c r="A4" s="54" t="s">
+      <c r="C3" s="69">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="51" customFormat="1" s="58">
+      <c r="A4" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="69">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A5" s="54" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="36" customFormat="1" s="58">
+      <c r="A5" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="69">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="75" customFormat="1" s="59">
-      <c r="A6" s="54" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="66" customFormat="1" s="58">
+      <c r="A6" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="60">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A7" s="54" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="36" customFormat="1" s="58">
+      <c r="A7" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="72">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="75" customFormat="1" s="59">
-      <c r="A8" s="54" t="s">
+      <c r="C7" s="69">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="66" customFormat="1" s="58">
+      <c r="A8" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="69">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A9" s="54" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="36" customFormat="1" s="58">
+      <c r="A9" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="69">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A10" s="54" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A10" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="60" customFormat="1" s="59">
-      <c r="A11" s="54" t="s">
+      <c r="C10" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="60" customFormat="1" s="58">
+      <c r="A11" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="69">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A12" s="64" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A12" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="56.25" customFormat="1" s="59">
-      <c r="A13" s="73" t="s">
+      <c r="C12" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="56.25" customFormat="1" s="58">
+      <c r="A13" s="70" t="s">
         <v>299</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="72">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A14" s="54" t="s">
+      <c r="C13" s="69">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A14" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="C14" s="72">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A15" s="54" t="s">
+      <c r="C14" s="69">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A15" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="C15" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A16" s="54" t="s">
+      <c r="C15" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A16" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="C16" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="60" customFormat="1" s="59">
-      <c r="A17" s="54" t="s">
+      <c r="C16" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="60" customFormat="1" s="58">
+      <c r="A17" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="C17" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A18" s="54" t="s">
+      <c r="C17" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A18" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="C18" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="60" customFormat="1" s="59">
-      <c r="A19" s="54" t="s">
+      <c r="C18" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="60" customFormat="1" s="58">
+      <c r="A19" s="53" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="60">
         <v>2</v>
       </c>
     </row>
@@ -2100,74 +2091,74 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="52" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="53" width="64.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="44" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="51" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="64.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="43" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30">
-      <c r="A2" s="48">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="30">
-      <c r="A3" s="48">
+      <c r="A3" s="47">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="30">
-      <c r="A4" s="48">
-        <v>3</v>
-      </c>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="47">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="30">
-      <c r="A5" s="48">
+      <c r="A5" s="47">
         <v>4</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="30">
-      <c r="A6" s="48">
+      <c r="A6" s="47">
         <v>5</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="50" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2189,12 +2180,12 @@
   <cols>
     <col min="1" max="1" style="14" width="6.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="15" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="44" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="43" width="9.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="15" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="44" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="44" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="44" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="44" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="43" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="43" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="43" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="43" width="10.862142857142858" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="15" width="7.576428571428571" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="15" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -2217,7 +2208,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="17"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -2226,16 +2217,16 @@
       <c r="P1" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="3.75">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -2244,18 +2235,18 @@
       <c r="P2" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="30.75">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -2264,16 +2255,16 @@
       <c r="P3" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="17"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -2282,34 +2273,34 @@
       <c r="P4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="24">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="28"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -2318,31 +2309,31 @@
       <c r="P5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.95">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>971</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="30" t="s">
+      <c r="E6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
@@ -2350,29 +2341,29 @@
       <c r="P6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.95">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="30" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="E7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="34"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="33"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -2380,26 +2371,26 @@
       <c r="P7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.95">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="30" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="30" t="s">
+      <c r="E8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="17"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -2408,26 +2399,26 @@
       <c r="P8" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.95">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="30" t="s">
+      <c r="E9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="38"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -2436,28 +2427,28 @@
       <c r="P9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.95">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="30" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="30" t="s">
+      <c r="E10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="17"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -2466,28 +2457,28 @@
       <c r="P10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.95">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="30" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="30" t="s">
+      <c r="E11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="17"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -2496,28 +2487,28 @@
       <c r="P11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.95">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="30" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="30" t="s">
+      <c r="E12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -2526,29 +2517,29 @@
       <c r="P12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.95">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="30" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="30" t="s">
+      <c r="E13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="39"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -2556,26 +2547,26 @@
       <c r="P13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.95">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="30" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="30" t="s">
+      <c r="E14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="17"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -2584,118 +2575,118 @@
       <c r="P14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.95">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="30" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="30" t="s">
+      <c r="E15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.95">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="30" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="30" t="s">
+      <c r="E16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.95">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="30" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="30" t="s">
+      <c r="E17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.95">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="30" t="s">
+      <c r="E18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="38"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -2704,16 +2695,16 @@
       <c r="P18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.95">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="38"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
@@ -2722,32 +2713,32 @@
       <c r="P19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.95">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <v>972</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="30" t="s">
+      <c r="E20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -2756,16 +2747,16 @@
       <c r="P20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.95">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="38"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -2774,32 +2765,32 @@
       <c r="P21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.95">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <v>973</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="30" t="s">
+      <c r="E22" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="38"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -2808,28 +2799,28 @@
       <c r="P22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.95">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="30" t="s">
+      <c r="E23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="38"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
@@ -2838,28 +2829,28 @@
       <c r="P23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.95">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="30" t="s">
+      <c r="E24" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
@@ -2868,28 +2859,28 @@
       <c r="P24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.95">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="30" t="s">
+      <c r="E25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="38"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
@@ -2898,16 +2889,16 @@
       <c r="P25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="24.95">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="38"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
@@ -2916,32 +2907,32 @@
       <c r="P26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.95">
-      <c r="A27" s="29">
+      <c r="A27" s="28">
         <v>974</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="30" t="s">
+      <c r="E27" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="38"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
@@ -2950,28 +2941,28 @@
       <c r="P27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.95">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="30" t="s">
+      <c r="E28" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="38"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
@@ -2980,28 +2971,28 @@
       <c r="P28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.95">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="30" t="s">
+      <c r="E29" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="38"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="37"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
@@ -3010,28 +3001,28 @@
       <c r="P29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.95">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="30" t="s">
+      <c r="E30" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="38"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
@@ -3040,28 +3031,28 @@
       <c r="P30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="24.95">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="30" t="s">
+      <c r="E31" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="38"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="37"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
@@ -3070,28 +3061,28 @@
       <c r="P31" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24.95">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="30" t="s">
+      <c r="E32" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="38"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
@@ -3100,16 +3091,16 @@
       <c r="P32" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.95">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="38"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -3118,32 +3109,32 @@
       <c r="P33" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="24.95">
-      <c r="A34" s="29">
+      <c r="A34" s="28">
         <v>975</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="30" t="s">
+      <c r="E34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="38"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="37"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
@@ -3152,28 +3143,28 @@
       <c r="P34" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="24.95">
-      <c r="A35" s="40"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="30" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="30" t="s">
+      <c r="E35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="38"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
@@ -3182,28 +3173,28 @@
       <c r="P35" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="24.95">
-      <c r="A36" s="40"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="30" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="30" t="s">
+      <c r="E36" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="38"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="37"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
@@ -3212,28 +3203,28 @@
       <c r="P36" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="24.95">
-      <c r="A37" s="40"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="30" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="30" t="s">
+      <c r="E37" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="38"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="37"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
@@ -3242,16 +3233,16 @@
       <c r="P37" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="24.95">
-      <c r="A38" s="40"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="38"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="37"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
@@ -3260,32 +3251,32 @@
       <c r="P38" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="24.95">
-      <c r="A39" s="29">
+      <c r="A39" s="28">
         <v>976</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="30" t="s">
+      <c r="E39" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="30" t="s">
+      <c r="H39" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="38"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="37"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
@@ -3294,28 +3285,28 @@
       <c r="P39" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="24.95">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="30" t="s">
+      <c r="E40" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="38"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="37"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
@@ -3324,16 +3315,16 @@
       <c r="P40" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="24.95">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="38"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="37"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
@@ -3342,30 +3333,30 @@
       <c r="P41" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="24.95">
-      <c r="A42" s="29">
+      <c r="A42" s="28">
         <v>978</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30" t="s">
+      <c r="E42" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="31"/>
-      <c r="J42" s="38"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="37"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
@@ -3374,26 +3365,26 @@
       <c r="P42" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="24.95">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30" t="s">
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="30" t="s">
+      <c r="E43" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="31"/>
+      <c r="G43" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="30" t="s">
+      <c r="H43" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="38"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="37"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
@@ -3402,16 +3393,16 @@
       <c r="P43" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="24.95">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="38"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="37"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
@@ -3420,32 +3411,32 @@
       <c r="P44" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="24.95">
-      <c r="A45" s="29">
+      <c r="A45" s="28">
         <v>977</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="30" t="s">
+      <c r="E45" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="31"/>
-      <c r="J45" s="38"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="37"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
@@ -3454,28 +3445,28 @@
       <c r="P45" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="24.95">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="30" t="s">
+      <c r="E46" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="30" t="s">
+      <c r="H46" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="31"/>
-      <c r="J46" s="38"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="37"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
@@ -3484,28 +3475,28 @@
       <c r="P46" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="24.95">
-      <c r="A47" s="40"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="30" t="s">
+      <c r="A47" s="39"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="30" t="s">
+      <c r="E47" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="H47" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="31"/>
-      <c r="J47" s="38"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="37"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
@@ -3514,28 +3505,28 @@
       <c r="P47" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="24.95">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="30" t="s">
+      <c r="E48" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="H48" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="31"/>
-      <c r="J48" s="38"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="37"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
@@ -3544,28 +3535,28 @@
       <c r="P48" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="24.95">
-      <c r="A49" s="40"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="30" t="s">
+      <c r="A49" s="39"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="30" t="s">
+      <c r="E49" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="31"/>
-      <c r="J49" s="38"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="37"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
@@ -3574,28 +3565,28 @@
       <c r="P49" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="24.95">
-      <c r="A50" s="40"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="30" t="s">
+      <c r="A50" s="39"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="30" t="s">
+      <c r="E50" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="30" t="s">
+      <c r="H50" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="31"/>
-      <c r="J50" s="38"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="37"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
@@ -3604,28 +3595,28 @@
       <c r="P50" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="24.95">
-      <c r="A51" s="40"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="30" t="s">
+      <c r="A51" s="39"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="30" t="s">
+      <c r="E51" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="H51" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="31"/>
-      <c r="J51" s="38"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="37"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
@@ -3634,28 +3625,28 @@
       <c r="P51" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="24.95">
-      <c r="A52" s="40"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="30" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="30" t="s">
+      <c r="E52" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H52" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="31"/>
-      <c r="J52" s="38"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="37"/>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
@@ -3664,16 +3655,16 @@
       <c r="P52" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="24.95">
-      <c r="A53" s="40"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="38"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="37"/>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
@@ -3682,32 +3673,32 @@
       <c r="P53" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="24.95">
-      <c r="A54" s="29">
+      <c r="A54" s="28">
         <v>979</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E54" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="30" t="s">
+      <c r="E54" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H54" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="31"/>
-      <c r="J54" s="38"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="37"/>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
@@ -3716,26 +3707,26 @@
       <c r="P54" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="24.95">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30" t="s">
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="32"/>
-      <c r="G55" s="30" t="s">
+      <c r="E55" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="31"/>
+      <c r="G55" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H55" s="30" t="s">
+      <c r="H55" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I55" s="31"/>
-      <c r="J55" s="38"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="37"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
@@ -3744,56 +3735,56 @@
       <c r="P55" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="24.95">
-      <c r="A56" s="35"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="30" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E56" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="32"/>
-      <c r="G56" s="30" t="s">
+      <c r="E56" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="31"/>
+      <c r="G56" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="30" t="s">
+      <c r="H56" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="24.95">
-      <c r="A57" s="35"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="30" t="s">
+      <c r="A57" s="34"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="30" t="s">
+      <c r="E57" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="H57" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="38"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="37"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
@@ -3802,26 +3793,26 @@
       <c r="P57" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="24.95">
-      <c r="A58" s="35"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="30" t="s">
+      <c r="A58" s="34"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E58" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="32"/>
-      <c r="G58" s="30" t="s">
+      <c r="E58" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="31"/>
+      <c r="G58" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H58" s="30" t="s">
+      <c r="H58" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="38"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="37"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
@@ -3830,26 +3821,26 @@
       <c r="P58" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="24.95">
-      <c r="A59" s="35"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="30" t="s">
+      <c r="A59" s="34"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="30" t="s">
+      <c r="E59" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="31"/>
+      <c r="G59" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="30" t="s">
+      <c r="H59" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I59" s="33"/>
-      <c r="J59" s="38"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="37"/>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
@@ -3858,28 +3849,28 @@
       <c r="P59" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="24.95">
-      <c r="A60" s="35"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="30" t="s">
+      <c r="A60" s="34"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="E60" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="30" t="s">
+      <c r="E60" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H60" s="30" t="s">
+      <c r="H60" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="33"/>
-      <c r="J60" s="38"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="37"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
@@ -3888,26 +3879,26 @@
       <c r="P60" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="24.95">
-      <c r="A61" s="29"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30" t="s">
+      <c r="A61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="30" t="s">
+      <c r="E61" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="31"/>
+      <c r="G61" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="30" t="s">
+      <c r="H61" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="31"/>
-      <c r="J61" s="38"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="37"/>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
@@ -3916,26 +3907,26 @@
       <c r="P61" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="24.95">
-      <c r="A62" s="35"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="30" t="s">
+      <c r="A62" s="34"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="E62" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30" t="s">
+      <c r="E62" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="30" t="s">
+      <c r="H62" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="17"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="3"/>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
@@ -3944,56 +3935,56 @@
       <c r="P62" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="24.95">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="30" t="s">
+      <c r="A63" s="34"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E63" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" s="30" t="s">
+      <c r="E63" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="30" t="s">
+      <c r="H63" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="24.95">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30" t="s">
+      <c r="A64" s="28"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="31" t="s">
+      <c r="D64" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30" t="s">
+      <c r="E64" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="30" t="s">
+      <c r="H64" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I64" s="31"/>
-      <c r="J64" s="38"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="37"/>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
@@ -4002,26 +3993,26 @@
       <c r="P64" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="24.95">
-      <c r="A65" s="42"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="30" t="s">
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30" t="s">
+      <c r="E65" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="30" t="s">
+      <c r="H65" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="43"/>
-      <c r="J65" s="38"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="37"/>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
@@ -4784,140 +4775,140 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="66" width="81.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="67" width="98.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="57" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="81.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="65" width="98.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="59">
-      <c r="A1" s="54" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="58">
+      <c r="A1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="59">
-      <c r="A2" s="54" t="s">
+      <c r="C1" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="58">
+      <c r="A2" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="59">
-      <c r="A3" s="54" t="s">
+      <c r="C2" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="58">
+      <c r="A3" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="59">
-      <c r="A4" s="54" t="s">
+      <c r="C3" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="58">
+      <c r="A4" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="59">
-      <c r="A5" s="54" t="s">
+      <c r="C4" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="58">
+      <c r="A5" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="59">
-      <c r="A6" s="54" t="s">
+      <c r="C5" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="58">
+      <c r="A6" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="31.5" customFormat="1" s="59">
-      <c r="A7" s="54" t="s">
+      <c r="C6" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="31.5" customFormat="1" s="58">
+      <c r="A7" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="36" customFormat="1" s="59">
-      <c r="A8" s="69" t="s">
+      <c r="C7" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="36" customFormat="1" s="58">
+      <c r="A8" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="67">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="59">
-      <c r="A9" s="54" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="58">
+      <c r="A9" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="36" customFormat="1" s="59">
-      <c r="A10" s="69" t="s">
+      <c r="C9" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="36" customFormat="1" s="58">
+      <c r="A10" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="71">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="59">
-      <c r="A11" s="54" t="s">
+      <c r="C10" s="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="58">
+      <c r="A11" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="36" customFormat="1" s="59">
-      <c r="A12" s="54" t="s">
+      <c r="C11" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="36" customFormat="1" s="58">
+      <c r="A12" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="64">
         <v>6</v>
       </c>
     </row>
@@ -4937,217 +4928,217 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="66" width="83.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="67" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="57" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="83.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="65" width="27.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95" customFormat="1" s="59">
-      <c r="A1" s="54" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95" customFormat="1" s="58">
+      <c r="A1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95" customFormat="1" s="59">
-      <c r="A2" s="54" t="s">
+      <c r="C1" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95" customFormat="1" s="58">
+      <c r="A2" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A3" s="54" t="s">
+      <c r="C2" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A3" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95" customFormat="1" s="59">
-      <c r="A4" s="54" t="s">
+      <c r="C3" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95" customFormat="1" s="58">
+      <c r="A4" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95" customFormat="1" s="59">
-      <c r="A5" s="54" t="s">
+      <c r="C4" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95" customFormat="1" s="58">
+      <c r="A5" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="63">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95" customFormat="1" s="59">
-      <c r="A6" s="54" t="s">
+      <c r="C5" s="62">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95" customFormat="1" s="58">
+      <c r="A6" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A7" s="54" t="s">
+      <c r="C6" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A7" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="C7" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A8" s="54" t="s">
+      <c r="C7" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A8" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A9" s="54" t="s">
+      <c r="C8" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A9" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A10" s="54" t="s">
+      <c r="C9" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A10" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="60">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A11" s="54" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A11" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="60">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A12" s="54" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A12" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A13" s="54" t="s">
+      <c r="C12" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A13" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="60">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A14" s="54" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A14" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="C14" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="39.95" customFormat="1" s="59">
-      <c r="A15" s="54" t="s">
+      <c r="C14" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="39.95" customFormat="1" s="58">
+      <c r="A15" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39.95" customFormat="1" s="59">
-      <c r="A16" s="54" t="s">
+      <c r="C15" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39.95" customFormat="1" s="58">
+      <c r="A16" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="C16" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="39.95" customFormat="1" s="59">
-      <c r="A17" s="64" t="s">
+      <c r="C16" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="39.95" customFormat="1" s="58">
+      <c r="A17" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="C17" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A18" s="54" t="s">
+      <c r="C17" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A18" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="C18" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="37.5" customFormat="1" s="59">
-      <c r="A19" s="54" t="s">
+      <c r="C18" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="37.5" customFormat="1" s="58">
+      <c r="A19" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="64">
         <v>6</v>
       </c>
     </row>
@@ -5167,217 +5158,217 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="53" width="70.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="52" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="57" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="70.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="51" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.95">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="39.95">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="39.95">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="39.95">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39.95">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="39.95">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="39.95">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="39.95">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>6</v>
       </c>
     </row>
@@ -5397,151 +5388,151 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="53" width="73.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="52" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="57" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="73.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="51" width="7.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.95">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="39.95">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>6</v>
       </c>
     </row>
@@ -5561,140 +5552,140 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="44" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="53" width="69.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="52" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="43" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="69.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="51" width="7.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.95">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>6</v>
       </c>
     </row>
@@ -5714,118 +5705,118 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="53" width="69.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="52" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="57" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="69.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="51" width="7.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="45.75">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="63">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>6</v>
       </c>
     </row>
@@ -5845,129 +5836,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="53" width="69.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="52" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="57" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="69.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="51" width="7.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.95">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="39.95">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="44.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>6</v>
       </c>
     </row>
@@ -5987,173 +5978,173 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="58" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="57" width="15.862142857142858" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="15" width="67.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="52" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="51" width="7.147857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="50.1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.95">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39.95">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="52.5">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="39.95">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.95">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.95">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.95">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.95">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.95">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.95">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.95">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="39.95">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="39.95">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="39.95">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>6</v>
       </c>
     </row>
